--- a/biology/Médecine/Hémolyse/Hémolyse.xlsx
+++ b/biology/Médecine/Hémolyse/Hémolyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9molyse</t>
+          <t>Hémolyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémolyse est la destruction des globules rouges (GR) libérant l'hémoglobine (Hb) dans le plasma sanguin. C'est un état physiologique normal : chez les individus en bonne santé, les GR sont détruits au terme d'une vie de 120 jours. Cependant, dans certains cas, l'hémolyse est exagérée, réduisant la durée de vie des GR : on parle alors d'hyper-hémolyse. À terme apparaît une anémie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9molyse</t>
+          <t>Hémolyse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les anémies hémolytiques sont celles provoquées par une destruction accélérée des globules rouges (GR). 
 Cette définition est imparfaite, pour deux motifs :
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9molyse</t>
+          <t>Hémolyse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,48 @@
           <t>Symptômes cliniques des états hémolytiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il convient de décrire séparément l'épisode hémolytique aigu et l'état d'hyperhémolyse chronique.
-Symptômes de la crise hémolytique aiguë
-Symptômes de la crise hémolytique aiguë : on pourra prendre comme exemple l'hémolyse aiguë provoquée par une transfusion incompatible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Symptômes cliniques des états hémolytiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Symptômes de la crise hémolytique aiguë</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symptômes de la crise hémolytique aiguë : on pourra prendre comme exemple l'hémolyse aiguë provoquée par une transfusion incompatible.
 a) Des douleurs aiguës, généralement comparées à des courbatures, surviennent particulièrement au niveau :
 des lombes = régions symétriques situées en arrière de l'abdomen, de chaque côté de la colonne vertébrale (attirant l'attention sur les reins) ;
 de l'abdomen (donnant parfois lieu à une contracture abdominale qui risque de susciter une laparotomie) ;
@@ -563,8 +614,43 @@
 d'autre part, l'hémoglobinurie, dont le rapport causal avec la néphropathie tubulaire est certain quoiqu'indirect. L'intensité de l'hémoglobinurie, et même son absence ou présence, ne permettent pas de juger de l'importance de l'hémolyse. Dans certains cas, l'hémoglobinurie est le symptôme le plus manifeste de la crise hémolytique : les maladies où elle attire particulièrement l'attention ont été désignées sous le nom d'hémoglobinuries paroxystiques.
 e) L'ictère hémolytique est un symptôme tardif qui ne se développe au plus tôt que le lendemain de la crise et qui va s'accentuer pendant quelques jours avant de disparaître. Il s'oppose aux ictères mécaniques et hépatocellulaires par toute une série de caractères cliniques : l'absence de bradycardie et de prurit (étant donné d'absence de rétention de sels biliaires), la coloration foncée des selles (due à l'excrétion par la bile de quantités accrues de bilirubine). En outre les urines sont foncées par suite de leur teneur en urobiline, mais ne contiennent pas de bilirubine et ne moussent pas (absence de sels biliaires).
 f) Les symptômes communs à toutes les anémies — faiblesse, dyspnée, etc. — existent à un degré qui dépend essentiellement de la masse de sang perdue par hémolyse.
-Symptômes d'un état hémolytique chronique
-a) Les symptômes d'anémie sont d'expression variable, souvent bien supportés étant donné la chronicité de l'état anémique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Symptômes cliniques des états hémolytiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Symptômes d'un état hémolytique chronique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">a) Les symptômes d'anémie sont d'expression variable, souvent bien supportés étant donné la chronicité de l'état anémique.
 b) L'ictère et la pâleur anémique se mélangent en proportions variables au niveau de la peau et des muqueuses. L'ictère a les caractères décrits ci-dessus. L'évolution de la plupart des états hémolytiques chroniques est de temps en temps entrecoupée par des épisodes de brusque aggravation de l'anémie ; l'un de ceux-ci peut même entraîner l'issue fatale. Ces « crises de déglobulisation » sont de 2 types :
 tantôt il s'agit d'une poussée hémolytique, marquée par une aggravation de l'ictère ;
 tantôt d'un épuisement médullaire, marqué au contraire par une rétrocession de l'ictère au profit de la pâleur.
@@ -577,86 +663,264 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Causes acquises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toxiques
-Cette étiologie doit être recherchée devant toute hémolyse brutale de mécanisme surtout intra-vasculaire et impose la recherche d'une exposition toxique :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Toxiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette étiologie doit être recherchée devant toute hémolyse brutale de mécanisme surtout intra-vasculaire et impose la recherche d'une exposition toxique :
 médicament (a-méthyl-dopa ou la L-dopa) ;
 venin de serpent, morsure d'araignée, piqûre de guêpe ;
 intoxication au cuivre, au plomb dans le cadre d'un saturnisme, au nitrobenzène, au naphtalène, au paradichlorobenzène, à l'hydrogène arsénié ou à l'aniline ;
 certains champignons ;
-certains gaz volatiles.
-Immunologiques
-Hémolyse auto-immune = hyperhémolyse (raccourcissement de la durée de vie des globules rouges &lt; à 120 jours) par fixation d'un anticorps sur les hématies entraînant leur destruction dépassant les capacités de régénération médullaire
+certains gaz volatiles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Causes acquises</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Immunologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hémolyse auto-immune = hyperhémolyse (raccourcissement de la durée de vie des globules rouges &lt; à 120 jours) par fixation d'un anticorps sur les hématies entraînant leur destruction dépassant les capacités de régénération médullaire
 Hémolyse immuno-allergique
-Incompatibilité sanguine
-Mécaniques
-Prothèse valvulaire cardiaque, surtout mécanique[1]
+Incompatibilité sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes acquises</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mécaniques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prothèse valvulaire cardiaque, surtout mécanique
 Hémangiome du cervelet
 Syndrome hémolytique et urémique du nourrisson
-Syndrome de Moschcowitz chez l'adulte
-Infectieuses
-Babésioses
+Syndrome de Moschcowitz chez l'adulte</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Causes acquises</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Infectieuses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Babésioses
 Parasite tel les Plasmodiums responsables du paludisme
-Septicémie à Clostridium perfringens
-HELLP syndrome
-HELLP syndrome, pour Haemolysis - Elevated Liver Enzyme - Low Platelet, soit l'association d'une hémolyse, d'une cytolyse hépatique et d'une thrombopénie.
+Septicémie à Clostridium perfringens</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Causes acquises</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HELLP syndrome</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HELLP syndrome, pour Haemolysis - Elevated Liver Enzyme - Low Platelet, soit l'association d'une hémolyse, d'une cytolyse hépatique et d'une thrombopénie.
 Ce syndrome est une des complications de la pré-éclampsie.
-Hémoglobinurie paroxystique nocturne
-Hémoglobinurie paroxystique nocturne : cas particulier d'une anémie hémolytique corpusculaire acquise.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Causes acquises</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hémoglobinurie paroxystique nocturne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémoglobinurie paroxystique nocturne : cas particulier d'une anémie hémolytique corpusculaire acquise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Causes héréditaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Et de nombreuses causes :
 la sphérocytose héréditaire et les autres anomalies corpusculaires ;
@@ -667,119 +931,410 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Examens hématologiques sanguins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mesures courantes
-Le nombre de globules rouges (GR, ou aussi « hématies »), le taux d'hémoglobine (Hb) et l'hématocrite (Hct) ne sont pas nécessairement abaissés dans les états hémolytiques : ils ne le deviennent que lorsque la moelle est décompensée. Dans les anémies hémolytiques provoquées par une cause extramédullaire (anticorps, poisons hémolysants), les GR sont en principe normochromes et normocytaires. Dans les anémies hémolytiques de cause globulaire, l'anomalie intrinsèque des GR peut quelquefois leur communiquer un volume globulaire et une charge en Hb très différents de la normale et caractéristiques pour chaque type d'affection.
-Examen du frottis sanguin
-Un fait est d'observation constante : la réticulocytose est élevée (les réticulocytes peuvent représenter jusque 40 % des globules rouges. N.B. : le taux normal est de 0,2 à 2,0 %). La réticulocytose montre l'indice de l'effort de régénération entrepris par la moelle ; cette réticulocytose ne s'efface vraiment que lors des moments d'épuisement de la moelle et est alors le prélude d'une aggravation rapide de l'anémie.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mesures courantes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de globules rouges (GR, ou aussi « hématies »), le taux d'hémoglobine (Hb) et l'hématocrite (Hct) ne sont pas nécessairement abaissés dans les états hémolytiques : ils ne le deviennent que lorsque la moelle est décompensée. Dans les anémies hémolytiques provoquées par une cause extramédullaire (anticorps, poisons hémolysants), les GR sont en principe normochromes et normocytaires. Dans les anémies hémolytiques de cause globulaire, l'anomalie intrinsèque des GR peut quelquefois leur communiquer un volume globulaire et une charge en Hb très différents de la normale et caractéristiques pour chaque type d'affection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Examens hématologiques sanguins</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Examen du frottis sanguin</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Un fait est d'observation constante : la réticulocytose est élevée (les réticulocytes peuvent représenter jusque 40 % des globules rouges. N.B. : le taux normal est de 0,2 à 2,0 %). La réticulocytose montre l'indice de l'effort de régénération entrepris par la moelle ; cette réticulocytose ne s'efface vraiment que lors des moments d'épuisement de la moelle et est alors le prélude d'une aggravation rapide de l'anémie.
 D'autres anomalies sont fréquemment présentes et leur observation permet souvent le diagnostic de l'affection en cause :
 des signes d'immaturité globulaire, dont fait déjà partie la réticulocytose, et qui comprennent la présence de quelques érythroblastes et de GR polychromatophiles (c'est-à-dire de couleur grisâtre parce que non chargés d'Hb) ;
 des anomalies de forme des GR : on peut observer des sphérocytes (an. hémol. à auto-anticorps, microsphérocytose héréditaire), des elliptocytes, des drépanocytes (= hématies en faucille : dans la drépanocytose), des hématies en cible (target cells : dans les thalassémies et beaucoup d'hémoglobinoses), des acanthocytes (GR crénelés : chez les brûlés et dans la lipoprotéinémie congénitale); la poïkilocytose (inégalité de forme) est assez exceptionnelle sauf dans les thalassémies où elle est frappante ;
 des anomalies de volume et de diamètre globulaires : p. ex. la microcytose (thalassémie, microsphérocytose héréditaire) et la leptocytose (minceur anormale des GR : dans les thalassémies) ; l'anisocytose est assez fréquente ;
 des anomalies de charge en Hb : p. ex. l'hypochromie dans les thalassémies ou l'hyperchromie apparente (coloration dense) des sphérocytes ;
-des inclusions globulaires : des corps de Heinz (intoxications, certaines affections idiopathiques), des corps de Pappenheimer (granules ferrugineux des sidérocytes), des ponctuations basophiles (anémie saturnine).
-La résistance osmotique
-La résistance osmotique est souvent normale. Elle est par contre très nettement diminuée chez les sphérocytes (particulièrement dans la microsphérocytose héréditaire) et augmentée chez les leptocytes (dans la thalassémie). Fréquemment, on observe une auto-hémolyse à l'incubation du sang dans diverses conditions.
-Les globules blancs et les plaquettes
-Les globules blancs et les plaquettes se comportent d'une manière variable selon les affections en cause.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+des inclusions globulaires : des corps de Heinz (intoxications, certaines affections idiopathiques), des corps de Pappenheimer (granules ferrugineux des sidérocytes), des ponctuations basophiles (anémie saturnine).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Examens hématologiques sanguins</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>La résistance osmotique</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résistance osmotique est souvent normale. Elle est par contre très nettement diminuée chez les sphérocytes (particulièrement dans la microsphérocytose héréditaire) et augmentée chez les leptocytes (dans la thalassémie). Fréquemment, on observe une auto-hémolyse à l'incubation du sang dans diverses conditions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Examens hématologiques sanguins</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les globules blancs et les plaquettes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les globules blancs et les plaquettes se comportent d'une manière variable selon les affections en cause.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Examen de la moelle osseuse</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle est presque toujours très riche et fortement érythroblastique (rapport granulo-érythropoiétique diminué) par suite de l'intense effort de régénération dont elle fait l'objet. Les érythroblastes ne se raréfient que lors des épisodes d'épuisement médullaire. Dans certains cas, de nature auto-immunitaire surtout, on peut observer des images d'érythrophagocytose.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Données métaboliques dans les anémies hémolytiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fer
-Le taux de fer sérique est généralement supérieur à 150 microgr./100 ml, du fait qu'il n'existe en principe pas de pertes anormales de fer, tandis que les gains en fer sont accrus (par transfusion, par l'administration erronée de fer et par l'augmentation de l'absorption intestinale de fer alimentaire provoquée par l'état d'anoxie). Le taux de saturation de la transferrine est dès lors élevé. L'hémochromatose secondaire est l'une des complications de l'état hémolytique chronique.
-Hémoglobinémie
-Le terme « hémoglobinémie » est réservé aux cas où le plasma est franchement rouge par suite d'une libération massive d'Hb globulaire : c'est un symptôme classique de la crise hémolytique aiguë, où il s'observe pendant plusieurs heures.
-Haptoglobine plasmatique
-L'haptoglobine plasmatique possède la propriété de se combiner avec l'Hb pour former un complexe haptoglobine-hémoglobine (Hp-Hb) qui est très rapidement capté par les cellules du S.R.E.. La libération excessive d'Hb dans le plasma, à la suite d'une crise hémolytique, a pour effet de consommer rapidement l'haptoglobine qui s'y trouve, la clairance par le S.R.E. du complexe Hp-Hb ainsi formé crée en quelques heures un état d'anhaptoglobinémie (disparition de l'haptoglobine) qui persiste en général plusieurs jours. Dans les hémolyses chroniques même légères (par exemple dans l'anémie pernicieuse), l'absence d'haptoglobine plasmatique est la règle.
-Hémoglobinurie
-L'hémoglobinurie, considérée isolément, ne constitue pas une mesure de la gravité d'une crise hémolytique.
-Hémosidérinurie
-La petite quantité d'hémoglobine réabsorbée par les cellules des tubes contournés du rein, lors d'une hémoglobinurie, est dégradée localement et son fer mis en réserve dans ces cellules sous la forme de grains d'hémosidérine. Par la dégradation de l'épithélium, ces grains intra- ou extra-cellulaires, peuvent se retrouver dans le culot de centrifugation de l'urine, et y être identifiés grâce à la réaction au bleu de Prusse. La mise en évidence d'une hémosidérinurie constitue la preuve, a posteriori, que le patient a présenté, antérieurement, une ou plusieurs hémoglobinuries.
-Méthémoglobinémie et méthémalbuminémie
-L'hémoglobine libre restant en circulation, après saturation de la capacité de fixation de l'haptoglobine, est instable et s'oxyde rapidement en méthémoglobine. La méthémoglobine est à son tour instable et cède rapidement ses groupements tétrapyrroliques (hématine) à deux protéines plasmatiques : l'hémopexine et, surtout, l'albumine. Le complexe hématine-albumine est désigné par le nom de méthémalbumine.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fer</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de fer sérique est généralement supérieur à 150 microgr./100 ml, du fait qu'il n'existe en principe pas de pertes anormales de fer, tandis que les gains en fer sont accrus (par transfusion, par l'administration erronée de fer et par l'augmentation de l'absorption intestinale de fer alimentaire provoquée par l'état d'anoxie). Le taux de saturation de la transferrine est dès lors élevé. L'hémochromatose secondaire est l'une des complications de l'état hémolytique chronique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Données métaboliques dans les anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hémoglobinémie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « hémoglobinémie » est réservé aux cas où le plasma est franchement rouge par suite d'une libération massive d'Hb globulaire : c'est un symptôme classique de la crise hémolytique aiguë, où il s'observe pendant plusieurs heures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Données métaboliques dans les anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Haptoglobine plasmatique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haptoglobine plasmatique possède la propriété de se combiner avec l'Hb pour former un complexe haptoglobine-hémoglobine (Hp-Hb) qui est très rapidement capté par les cellules du S.R.E.. La libération excessive d'Hb dans le plasma, à la suite d'une crise hémolytique, a pour effet de consommer rapidement l'haptoglobine qui s'y trouve, la clairance par le S.R.E. du complexe Hp-Hb ainsi formé crée en quelques heures un état d'anhaptoglobinémie (disparition de l'haptoglobine) qui persiste en général plusieurs jours. Dans les hémolyses chroniques même légères (par exemple dans l'anémie pernicieuse), l'absence d'haptoglobine plasmatique est la règle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Données métaboliques dans les anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hémoglobinurie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémoglobinurie, considérée isolément, ne constitue pas une mesure de la gravité d'une crise hémolytique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Données métaboliques dans les anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hémosidérinurie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La petite quantité d'hémoglobine réabsorbée par les cellules des tubes contournés du rein, lors d'une hémoglobinurie, est dégradée localement et son fer mis en réserve dans ces cellules sous la forme de grains d'hémosidérine. Par la dégradation de l'épithélium, ces grains intra- ou extra-cellulaires, peuvent se retrouver dans le culot de centrifugation de l'urine, et y être identifiés grâce à la réaction au bleu de Prusse. La mise en évidence d'une hémosidérinurie constitue la preuve, a posteriori, que le patient a présenté, antérieurement, une ou plusieurs hémoglobinuries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hémolyse</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9molyse</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Données métaboliques dans les anémies hémolytiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Méthémoglobinémie et méthémalbuminémie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hémoglobine libre restant en circulation, après saturation de la capacité de fixation de l'haptoglobine, est instable et s'oxyde rapidement en méthémoglobine. La méthémoglobine est à son tour instable et cède rapidement ses groupements tétrapyrroliques (hématine) à deux protéines plasmatiques : l'hémopexine et, surtout, l'albumine. Le complexe hématine-albumine est désigné par le nom de méthémalbumine.
 Une méthémalbuminémie massive s'observe dans deux circonstances :
 dans les jours qui suivent une crise hémolytique aiguë (par exemple la crise suraiguë de malaria) ;
 dans certaines pancréatites aiguës hémorragiques (où une grande quantité de sang est détruite par les enzymes de la glande nécrosée).
